--- a/Data/Output/Sales List.xlsx
+++ b/Data/Output/Sales List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blast\OneDrive\Documentos\UiPath\BR_Nu_Relatorio_Vendas\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A954715-E645-40E0-AFB1-2C76F412BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D93104-8270-4E24-84C1-21EC37D1D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{F28B0CC0-5A67-477F-ACF6-781308DFD339}"/>
   </bookViews>
